--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandroriera/dev/EMBO/turron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32F9C12-2577-C348-8737-A1387EE59A33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42BDD9A-3639-6C49-B724-DEC40EC2915C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="47900" windowHeight="27600" xr2:uid="{B67E0CB1-892F-D94C-969A-69E1385019D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,9 +54,6 @@
     <t>Maria L</t>
   </si>
   <si>
-    <t>maira.leptin@embo.org</t>
-  </si>
-  <si>
     <t>Joy</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Fiona</t>
   </si>
   <si>
-    <t>fiona.panyai@embo.org</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>maria.leptin@embo.org</t>
+  </si>
+  <si>
+    <t>fiona.panayi@embo.org</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -622,37 +622,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
-      </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
         <v>5</v>
@@ -718,13 +718,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -826,58 +826,58 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>9</v>
-      </c>
-      <c r="O7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D8">
         <v>3</v>
       </c>
@@ -912,18 +912,18 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -959,18 +959,18 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1006,18 +1006,18 @@
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D11">
         <v>4.5</v>
@@ -1047,19 +1047,19 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -1094,18 +1094,18 @@
         <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -1188,18 +1188,18 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1229,18 +1229,18 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D16">
         <v>17</v>
@@ -1276,18 +1276,18 @@
         <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1323,18 +1323,18 @@
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -1370,18 +1370,18 @@
         <v>6</v>
       </c>
       <c r="O18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>3</v>
